--- a/downloaded_files/MDPS371_Lecture-35507.xlsx
+++ b/downloaded_files/MDPS371_Lecture-35507.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -301,6 +301,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Mostafa Sayed Ameen Sayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مروان احمد صابر حامد علي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marwan Ahmed Saber Hamed Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1220144</x:t>
@@ -470,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1821,7 +1830,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.9109657755</x:v>
+        <x:v>45919.7478263079</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,7 +1862,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45909.9109657755</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1894,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.9608052083</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1926,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.4179330671</x:v>
+        <x:v>45912.9608052083</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1958,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45909.4179330671</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1981,7 +1990,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.4701871875</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1998,6 +2007,38 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45914.4701871875</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Lecture-35507.xlsx
+++ b/downloaded_files/MDPS371_Lecture-35507.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -274,15 +274,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Kareem Ahmed El Hemaly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود خالد محمد ابو العلا</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud Khaled Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220023</x:t>
@@ -479,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1734,7 +1725,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6664649306</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1766,7 +1757,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45914.5210448264</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1798,7 +1789,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.5210448264</x:v>
+        <x:v>45919.7478263079</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1830,7 +1821,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45919.7478263079</x:v>
+        <x:v>45909.9109657755</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1862,7 +1853,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.9109657755</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1894,7 +1885,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45912.9608052083</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1926,7 +1917,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.9608052083</x:v>
+        <x:v>45909.4179330671</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1958,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.4179330671</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1990,7 +1981,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45914.4701871875</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2007,38 +1998,6 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45914.4701871875</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Lecture-35507.xlsx
+++ b/downloaded_files/MDPS371_Lecture-35507.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -256,6 +256,15 @@
   </x:si>
   <x:si>
     <x:t>Muhammed emam muhammed radwan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد ايهاب سعيد السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Ehab Said El Sayed</x:t>
   </x:si>
   <x:si>
     <x:t>1210159</x:t>
@@ -470,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1661,7 +1670,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6660945602</x:v>
+        <x:v>45923.2575562847</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1702,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45914.3999172454</x:v>
+        <x:v>45906.6660945602</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1734,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45914.3999172454</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1766,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45914.5210448264</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1798,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45919.7478263079</x:v>
+        <x:v>45914.5210448264</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1830,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.9109657755</x:v>
+        <x:v>45919.7478263079</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,7 +1862,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45909.9109657755</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1894,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45912.9608052083</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1926,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.4179330671</x:v>
+        <x:v>45912.9608052083</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1958,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45909.4179330671</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1981,7 +1990,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45914.4701871875</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1998,6 +2007,38 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45914.4701871875</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Lecture-35507.xlsx
+++ b/downloaded_files/MDPS371_Lecture-35507.xlsx
@@ -870,7 +870,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45907.420996794</x:v>
+        <x:v>45923.7598320949</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>

--- a/downloaded_files/MDPS371_Lecture-35507.xlsx
+++ b/downloaded_files/MDPS371_Lecture-35507.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -364,6 +364,15 @@
   </x:si>
   <x:si>
     <x:t>YUSSEF MOHAMMED HUSSIEN MOHAMMED ABD ELHALIM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد فاروق قنديل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Farouk Kandel</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -479,7 +488,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +788,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2039,6 +2048,38 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45924.8699445949</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Lecture-35507.xlsx
+++ b/downloaded_files/MDPS371_Lecture-35507.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -114,24 +114,6 @@
     <x:t>Seif el din motaz ahmed ezzat khattab</x:t>
   </x:si>
   <x:si>
-    <x:t>1220178</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن عمرو إبراهيم محمد جميل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdelrahman amr</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220254</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد عثمان عبد الحميد مرسي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Mohammed Othman morsi</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220014</x:t>
   </x:si>
   <x:si>
@@ -141,15 +123,6 @@
     <x:t>Alaa Eldin Usama Ahmed Ali</x:t>
   </x:si>
   <x:si>
-    <x:t>1220133</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر خالد مقبل محمد عبد المنعم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Khaled Mokbel</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210066</x:t>
   </x:si>
   <x:si>
@@ -168,15 +141,6 @@
     <x:t>Omar Tarek Refaat Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1220328</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمرو عماد صبحى حسن محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMR EMAD SOBHY HASSAN MOHAMED</x:t>
-  </x:si>
-  <x:si>
     <x:t>1190475</x:t>
   </x:si>
   <x:si>
@@ -231,15 +195,6 @@
     <x:t>Mary Morcos George Ibrahem</x:t>
   </x:si>
   <x:si>
-    <x:t>1220271</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مالك سامح اسماعيل عبدالحميد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Malek Sameh Esmael Abdelhameed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210072</x:t>
   </x:si>
   <x:si>
@@ -321,6 +276,15 @@
     <x:t>Marwan Nezar Mohamed Abbas Ahmed Abdelshafy</x:t>
   </x:si>
   <x:si>
+    <x:t>1210307</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى شادي محمود محمد الشجيع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Shady Mahmoud Mohamed Elshagie</x:t>
+  </x:si>
+  <x:si>
     <x:t>1200276</x:t>
   </x:si>
   <x:si>
@@ -328,6 +292,15 @@
   </x:si>
   <x:si>
     <x:t>mostafa mohamed saied ibrahim omar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210417</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصعب محمد عبد اللاه على عبد اللاه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mosaab Mohammed Abdella Ali</x:t>
   </x:si>
   <x:si>
     <x:t>4230182</x:t>
@@ -488,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -788,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T39"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -796,7 +769,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="31.150625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="28.840625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="52.410625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1167,7 +1140,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.4065581019</x:v>
+        <x:v>45907.4206363079</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1199,7 +1172,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4155685995</x:v>
+        <x:v>45906.6690387384</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1231,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4206363079</x:v>
+        <x:v>45927.4361290509</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1263,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4212048958</x:v>
+        <x:v>45906.4152015046</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1295,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6690387384</x:v>
+        <x:v>45918.3638902778</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1327,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4181934375</x:v>
+        <x:v>45914.5405380787</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1359,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.5300445255</x:v>
+        <x:v>45912.9025848727</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1391,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45906.6651020833</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1423,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45918.3638902778</x:v>
+        <x:v>45912.8950857292</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1455,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.5405380787</x:v>
+        <x:v>45906.6660905903</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1487,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.9025848727</x:v>
+        <x:v>45906.6660722222</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1519,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6651020833</x:v>
+        <x:v>45923.2575562847</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1551,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45912.8950857292</x:v>
+        <x:v>45906.6660945602</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1583,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.8855846065</x:v>
+        <x:v>45914.3999172454</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1615,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6660905903</x:v>
+        <x:v>45906.6647710648</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1647,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45914.5210448264</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1679,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45923.2575562847</x:v>
+        <x:v>45919.7478263079</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1711,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6660945602</x:v>
+        <x:v>45909.9109657755</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1743,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45914.3999172454</x:v>
+        <x:v>45927.4161522801</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1775,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1807,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45914.5210448264</x:v>
+        <x:v>45927.4150893171</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1839,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45919.7478263079</x:v>
+        <x:v>45912.9608052083</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1871,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.9109657755</x:v>
+        <x:v>45909.4179330671</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1903,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1935,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45912.9608052083</x:v>
+        <x:v>45914.4701871875</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1967,7 +1940,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.4179330671</x:v>
+        <x:v>45924.8699445949</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1984,102 +1957,6 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45906.6649665856</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45914.4701871875</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45924.8699445949</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Lecture-35507.xlsx
+++ b/downloaded_files/MDPS371_Lecture-35507.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -204,15 +204,6 @@
     <x:t>Mickel Maged Roushdy Tosson</x:t>
   </x:si>
   <x:si>
-    <x:t>1220077</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد امام محمد رضوان ياسين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Muhammed emam muhammed radwan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220141</x:t>
   </x:si>
   <x:si>
@@ -238,15 +229,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Kareem Ahmed El Hemaly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمود مدحت محمود محمد متولي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mahmoud medhat mahmoud mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220199</x:t>
@@ -461,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1460,7 +1442,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6660722222</x:v>
+        <x:v>45923.2575562847</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1492,7 +1474,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45923.2575562847</x:v>
+        <x:v>45906.6660945602</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1524,7 +1506,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6660945602</x:v>
+        <x:v>45914.3999172454</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1556,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.3999172454</x:v>
+        <x:v>45914.5210448264</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1588,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6647710648</x:v>
+        <x:v>45919.7478263079</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1620,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.5210448264</x:v>
+        <x:v>45909.9109657755</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1652,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45919.7478263079</x:v>
+        <x:v>45927.4161522801</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1684,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.9109657755</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.4161522801</x:v>
+        <x:v>45927.4150893171</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45912.9608052083</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45927.4150893171</x:v>
+        <x:v>45909.4179330671</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.9608052083</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4179330671</x:v>
+        <x:v>45914.4701871875</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1858,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45924.8699445949</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1894,70 +1876,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45914.4701871875</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45924.8699445949</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1970,9 +1888,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Mechanical Vibrations (MDPS371) Location : [14501]14501-50-الجيزة الرئيسي Time : Thursday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/MDPS371_Lecture-35507.xlsx
+++ b/downloaded_files/MDPS371_Lecture-35507.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220158</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أحمد هاني محمد حلمي أحمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Hany Mohamed Helmy Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>4230136</x:t>
@@ -443,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -834,7 +843,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45923.7598320949</x:v>
+        <x:v>45928.6013799421</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -866,7 +875,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.4164195255</x:v>
+        <x:v>45923.7598320949</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -898,7 +907,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45912.8906941319</x:v>
+        <x:v>45907.4164195255</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -930,7 +939,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6673890394</x:v>
+        <x:v>45912.8906941319</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -962,7 +971,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.7918039352</x:v>
+        <x:v>45906.6673890394</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -994,7 +1003,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4307780093</x:v>
+        <x:v>45906.7918039352</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1026,7 +1035,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6678975347</x:v>
+        <x:v>45907.4307780093</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1058,7 +1067,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.4221868056</x:v>
+        <x:v>45906.6678975347</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1090,7 +1099,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6646386574</x:v>
+        <x:v>45909.4221868056</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1122,7 +1131,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4206363079</x:v>
+        <x:v>45906.6646386574</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1154,7 +1163,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6690387384</x:v>
+        <x:v>45907.4206363079</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1186,7 +1195,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4361290509</x:v>
+        <x:v>45906.6690387384</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1218,7 +1227,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45927.4361290509</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1250,7 +1259,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45918.3638902778</x:v>
+        <x:v>45906.4152015046</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1282,7 +1291,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.5405380787</x:v>
+        <x:v>45918.3638902778</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1314,7 +1323,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.9025848727</x:v>
+        <x:v>45914.5405380787</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1346,7 +1355,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6651020833</x:v>
+        <x:v>45912.9025848727</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1378,7 +1387,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.8950857292</x:v>
+        <x:v>45906.6651020833</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1410,7 +1419,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6660905903</x:v>
+        <x:v>45912.8950857292</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1442,7 +1451,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45923.2575562847</x:v>
+        <x:v>45906.6660905903</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1474,7 +1483,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6660945602</x:v>
+        <x:v>45923.2575562847</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1506,7 +1515,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.3999172454</x:v>
+        <x:v>45906.6660945602</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1538,7 +1547,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.5210448264</x:v>
+        <x:v>45914.3999172454</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1570,7 +1579,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45919.7478263079</x:v>
+        <x:v>45914.5210448264</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1602,7 +1611,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.9109657755</x:v>
+        <x:v>45919.7478263079</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1634,7 +1643,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.4161522801</x:v>
+        <x:v>45909.9109657755</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1666,7 +1675,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45927.4161522801</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1698,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.4150893171</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.9608052083</x:v>
+        <x:v>45927.4150893171</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4179330671</x:v>
+        <x:v>45912.9608052083</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45909.4179330671</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.4701871875</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1858,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45924.8699445949</x:v>
+        <x:v>45914.4701871875</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1876,6 +1885,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45924.8699445949</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1888,6 +1929,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Mechanical Vibrations (MDPS371) Location : [14501]14501-50-الجيزة الرئيسي Time : Thursday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/MDPS371_Lecture-35507.xlsx
+++ b/downloaded_files/MDPS371_Lecture-35507.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -139,15 +139,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Sobhy Ellethy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220264</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر طارق رفعت محمد عبداللاه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Tarek Refaat Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1190475</x:t>
@@ -452,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1227,7 +1218,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4361290509</x:v>
+        <x:v>45906.4152015046</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1259,7 +1250,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45918.3638902778</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1291,7 +1282,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45918.3638902778</x:v>
+        <x:v>45914.5405380787</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1323,7 +1314,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.5405380787</x:v>
+        <x:v>45912.9025848727</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1355,7 +1346,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.9025848727</x:v>
+        <x:v>45906.6651020833</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1387,7 +1378,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6651020833</x:v>
+        <x:v>45912.8950857292</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1419,7 +1410,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.8950857292</x:v>
+        <x:v>45906.6660905903</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1451,7 +1442,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6660905903</x:v>
+        <x:v>45923.2575562847</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1483,7 +1474,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45923.2575562847</x:v>
+        <x:v>45906.6660945602</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1515,7 +1506,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6660945602</x:v>
+        <x:v>45914.3999172454</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1547,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.3999172454</x:v>
+        <x:v>45914.5210448264</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1579,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.5210448264</x:v>
+        <x:v>45919.7478263079</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1611,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45919.7478263079</x:v>
+        <x:v>45909.9109657755</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1643,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.9109657755</x:v>
+        <x:v>45927.4161522801</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1675,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45927.4161522801</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1707,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45927.4150893171</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45927.4150893171</x:v>
+        <x:v>45912.9608052083</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45912.9608052083</x:v>
+        <x:v>45909.4179330671</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.4179330671</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45914.4701871875</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1867,7 +1858,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45914.4701871875</x:v>
+        <x:v>45924.8699445949</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1885,38 +1876,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45924.8699445949</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1929,9 +1888,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Mechanical Vibrations (MDPS371) Location : [14501]14501-50-الجيزة الرئيسي Time : Thursday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/MDPS371_Lecture-35507.xlsx
+++ b/downloaded_files/MDPS371_Lecture-35507.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,24 @@
   </x:si>
   <x:si>
     <x:t>Alaa Eldin Usama Ahmed Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر الوليد محمد السيد إبراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar AlWaleed Mohamed ElSayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220186</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر تامر حسن على الموافى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Tamer Hassan Ali ElMowafy</x:t>
   </x:si>
   <x:si>
     <x:t>1210066</x:t>
@@ -443,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1186,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6690387384</x:v>
+        <x:v>45930.4128716088</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1218,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45930.4012959144</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1250,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45918.3638902778</x:v>
+        <x:v>45906.6690387384</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1282,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.5405380787</x:v>
+        <x:v>45906.4152015046</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1314,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45912.9025848727</x:v>
+        <x:v>45918.3638902778</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1346,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6651020833</x:v>
+        <x:v>45914.5405380787</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1378,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.8950857292</x:v>
+        <x:v>45912.9025848727</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1410,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6660905903</x:v>
+        <x:v>45906.6651020833</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1442,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45923.2575562847</x:v>
+        <x:v>45912.8950857292</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1474,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6660945602</x:v>
+        <x:v>45906.6660905903</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1506,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.3999172454</x:v>
+        <x:v>45923.2575562847</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1538,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.5210448264</x:v>
+        <x:v>45906.6660945602</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1570,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45919.7478263079</x:v>
+        <x:v>45914.3999172454</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1602,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.9109657755</x:v>
+        <x:v>45914.5210448264</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1634,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.4161522801</x:v>
+        <x:v>45919.7478263079</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1666,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45909.9109657755</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1698,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.4150893171</x:v>
+        <x:v>45927.4161522801</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45912.9608052083</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4179330671</x:v>
+        <x:v>45927.4150893171</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45912.9608052083</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45914.4701871875</x:v>
+        <x:v>45909.4179330671</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1858,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45924.8699445949</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1876,6 +1894,70 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45914.4701871875</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45924.8699445949</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1888,6 +1970,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Mechanical Vibrations (MDPS371) Location : [14501]14501-50-الجيزة الرئيسي Time : Thursday(11:13)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/MDPS371_Lecture-35507.xlsx
+++ b/downloaded_files/MDPS371_Lecture-35507.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -139,15 +139,6 @@
   </x:si>
   <x:si>
     <x:t>Omar AlWaleed Mohamed ElSayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220186</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر تامر حسن على الموافى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Tamer Hassan Ali ElMowafy</x:t>
   </x:si>
   <x:si>
     <x:t>1210066</x:t>
@@ -461,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1236,7 +1227,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45930.4012959144</x:v>
+        <x:v>45906.6690387384</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1268,7 +1259,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6690387384</x:v>
+        <x:v>45906.4152015046</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1300,7 +1291,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4152015046</x:v>
+        <x:v>45918.3638902778</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1332,7 +1323,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45918.3638902778</x:v>
+        <x:v>45914.5405380787</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1364,7 +1355,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.5405380787</x:v>
+        <x:v>45912.9025848727</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1396,7 +1387,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45912.9025848727</x:v>
+        <x:v>45906.6651020833</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1428,7 +1419,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6651020833</x:v>
+        <x:v>45912.8950857292</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1460,7 +1451,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45912.8950857292</x:v>
+        <x:v>45906.6660905903</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1492,7 +1483,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6660905903</x:v>
+        <x:v>45923.2575562847</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1524,7 +1515,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45923.2575562847</x:v>
+        <x:v>45906.6660945602</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1556,7 +1547,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6660945602</x:v>
+        <x:v>45914.3999172454</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1588,7 +1579,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45914.3999172454</x:v>
+        <x:v>45914.5210448264</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1620,7 +1611,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45914.5210448264</x:v>
+        <x:v>45919.7478263079</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1652,7 +1643,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45919.7478263079</x:v>
+        <x:v>45909.9109657755</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1684,7 +1675,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.9109657755</x:v>
+        <x:v>45927.4161522801</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45927.4161522801</x:v>
+        <x:v>45909.4159330671</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.4159330671</x:v>
+        <x:v>45927.4150893171</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45927.4150893171</x:v>
+        <x:v>45912.9608052083</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45912.9608052083</x:v>
+        <x:v>45909.4179330671</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4179330671</x:v>
+        <x:v>45906.6649665856</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.6649665856</x:v>
+        <x:v>45914.4701871875</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1908,7 +1899,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45914.4701871875</x:v>
+        <x:v>45924.8699445949</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1925,38 +1916,6 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45924.8699445949</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
